--- a/data/trans_bre/P24_8_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P24_8_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -641,47 +673,67 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,33</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,54</t>
+          <t>6,64</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,67</t>
+          <t>8,96</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>8,49</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>6,03</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>110,95%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>72,73%</t>
+          <t>8,47</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>187,77%</t>
+          <t>110,92%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>177,87%</t>
+          <t>70,62%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>62,59%</t>
+          <t>191,1%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>187,98%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>177,31%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>62,57%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>75,09%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,85; 9,01</t>
+          <t>2,57; 9,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 7,32</t>
+          <t>0,7; 7,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,1; 9,05</t>
+          <t>4,2; 8,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,38; 11,71</t>
+          <t>5,82; 11,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,91; 9,55</t>
+          <t>4,66; 11,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>29,36; 226,36</t>
+          <t>2,53; 9,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,2; 160,84</t>
+          <t>4,51; 12,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>85,15; 375,9</t>
+          <t>28,24; 221,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>84,85; 320,72</t>
+          <t>7,39; 163,75</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24,55; 119,12</t>
+          <t>90,39; 351,63</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>88,73; 335,51</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>68,45; 345,82</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>21,19; 111,39</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>32,9; 129,53</t>
         </is>
       </c>
     </row>
@@ -761,47 +833,67 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,61</t>
+          <t>8,86</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,8</t>
+          <t>6,11</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>9,79</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>10,06</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>236,2%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>300,28%</t>
+          <t>10,03</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>107,97%</t>
+          <t>236,18%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>33,79%</t>
+          <t>283,46%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>144,62%</t>
+          <t>113,23%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>34,41%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>138,52%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>144,65%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>112,34%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,81; 12,25</t>
+          <t>5,73; 12,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,29; 11,85</t>
+          <t>5,45; 12,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,59; 9,12</t>
+          <t>2,86; 9,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 6,38</t>
+          <t>-2,43; 6,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,1; 16,51</t>
+          <t>5,42; 14,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>106,19; 451,86</t>
+          <t>3,77; 16,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>128,93; 636,97</t>
+          <t>3,77; 16,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>37,17; 219,83</t>
+          <t>106,92; 431,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-23,52; 117,82</t>
+          <t>117,42; 603,72</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>39,33; 355,96</t>
+          <t>39,75; 238,5</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-23,11; 104,3</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>53,88; 265,95</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>33,03; 336,31</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>25,59; 249,68</t>
         </is>
       </c>
     </row>
@@ -876,50 +988,70 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,29</t>
+          <t>6,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,77</t>
+          <t>7,67</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,48</t>
+          <t>8,67</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,32</t>
+          <t>11,34</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>6,76</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>88,15%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>381,51%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>206,23%</t>
+          <t>87,83%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>403,0%</t>
+          <t>327,71%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>210,45%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>397,8%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>108,04%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -934,50 +1066,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 13,36</t>
+          <t>-7,19; 13,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,73; 13,67</t>
+          <t>3,0; 13,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,68; 14,07</t>
+          <t>2,62; 14,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,93; 17,68</t>
+          <t>5,6; 17,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-1,5; 14,02</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-54,38; 606,44</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,54; 1905,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>32,62; 689,98</t>
+          <t>-52,87; 700,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>70,92; 1956,68</t>
+          <t>13,25; 1513,33</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>23,57; 685,0</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>71,52; 1691,2</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-27,61; 477,18</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1001,47 +1153,67 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,45</t>
+          <t>6,52</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,43</t>
+          <t>6,62</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,64</t>
+          <t>6,8</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>8,75</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>6,97</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>144,55%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>151,89%</t>
+          <t>8,87</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>148,91%</t>
+          <t>144,46%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>114,25%</t>
+          <t>146,33%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>77,45%</t>
+          <t>153,1%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>117,66%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>148,72%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>77,43%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>82,84%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,91 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,64; 9,26</t>
+          <t>4,84; 9,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,3; 8,57</t>
+          <t>4,21; 8,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,43; 8,37</t>
+          <t>4,65; 8,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,19; 8,91</t>
+          <t>4,49; 9,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,23; 9,94</t>
+          <t>6,07; 11,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>63,16; 234,99</t>
+          <t>3,96; 10,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>74,83; 253,34</t>
+          <t>5,78; 12,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>81,32; 227,79</t>
+          <t>62,43; 249,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>49,7; 191,28</t>
+          <t>72,49; 238,34</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>41,13; 131,12</t>
+          <t>89,85; 238,37</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>56,86; 193,33</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>82,73; 232,22</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>38,7; 127,32</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>46,81; 139,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P24_8_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P24_8_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -666,479 +675,307 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>6,18</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,31</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>6,64</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>8,96</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>8,49</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>6,03</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>8,47</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>110,92%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>70,62%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>191,1%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>187,98%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>177,31%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>62,57%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>75,09%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>6.180339690625718</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>4.917865455184291</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>6.630123716292993</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>9.058098671140577</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>8.358396885981781</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>6.031684810074429</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>8.672738165056817</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.109165143744566</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.8139229126789864</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>1.9302214833855</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>1.889086879020156</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>1.751085921737489</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>0.6257265464182064</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>0.7769993421590196</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>2,57; 9,22</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,7; 7,36</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>4,2; 8,98</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>5,82; 11,69</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>4,66; 11,86</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>2,53; 9,36</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>4,51; 12,16</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>28,24; 221,71</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>7,39; 163,75</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>90,39; 351,63</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>88,73; 335,51</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>68,45; 345,82</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>21,19; 111,39</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>32,9; 129,53</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>2.571411937884681</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>1.372364559750244</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>4.218399957991705</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>5.973770335864259</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>4.629175020709297</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>2.53443326009453</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>4.686362176209049</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.2824102944747905</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.1437862784537069</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.9112563736108408</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>0.8907340204845624</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.671604167527713</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>0.2119391148777424</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>0.3562933240818755</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.224808841524879</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>8.338174568825428</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>8.996761069287011</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>11.90508557523618</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>11.80968060395594</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>9.355256364004564</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>12.34818848389201</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.217067367740094</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.84566379649078</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>3.478381940302526</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>3.350692487642765</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>3.385071799164503</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>1.113930294838439</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>1.326391848362045</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>9,04</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>8,86</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6,11</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,72</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>9,79</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>10,06</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>10,03</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>236,18%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>283,46%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>113,23%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>34,41%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>138,52%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>144,65%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>112,34%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>5,73; 12,11</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>5,45; 12,25</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,86; 9,43</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,43; 6,33</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>5,42; 14,34</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>3,77; 16,75</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>3,77; 16,59</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>106,92; 431,87</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>117,42; 603,72</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>39,75; 238,5</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-23,11; 104,3</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>53,88; 265,95</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>33,03; 336,31</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>25,59; 249,68</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>9.042892032790977</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>7.96690938267014</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>5.647745165821432</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.431702241203356</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>10.12071822573481</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>10.06174085338219</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>9.917133992436886</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>2.361835985596873</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>2.325722531432887</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>1.008512397551866</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.3006071948778519</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>1.501407765028508</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>1.446501577175045</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>1.110725252899315</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>6,27</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,67</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>8,67</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>11,34</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>6,76</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>87,83%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>327,71%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>210,45%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>397,8%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>108,04%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>5.725896474644155</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>4.273776136322402</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>2.405001249920592</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.917621054072194</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>5.913030407036576</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>3.769747789104722</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>3.71029310164279</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>1.069249057008525</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.6278536665016408</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.3002498859347726</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.2682745104450749</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0.6014330700946707</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>0.3303210575730603</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>0.2538769901910251</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,19; 13,41</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>3,0; 13,55</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,62; 14,64</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>5,6; 17,71</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-1,5; 14,02</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-52,87; 700,24</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>13,25; 1513,33</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>23,57; 685,0</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>71,52; 1691,2</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-27,61; 477,18</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>12.10521655517206</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>11.00192815811828</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>9.06246587997776</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>6.028504612439378</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>14.67089075101374</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>16.74605852491621</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>16.45725725605543</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>4.318705985052522</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>5.027549685704153</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>2.135227798989492</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.9880412784511372</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>2.785613023627832</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>3.36311659495862</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>2.488703914962905</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1146,157 +983,281 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>7,32</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>6,52</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>6,62</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6,8</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>8,75</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>6,97</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>8,87</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>144,46%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>146,33%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>153,1%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>117,66%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>148,72%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>77,43%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>82,84%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>6.274360945908426</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>7.800689343342698</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>8.90775374304835</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>11.25448982632573</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>6.843066054841993</v>
+      </c>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="6" t="n">
+        <v>0.8783316570185636</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>3.93350954678697</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>2.104539574168297</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>3.913117878595604</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>1.122826093374229</v>
+      </c>
+      <c r="O10" s="6" t="inlineStr"/>
+      <c r="P10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>4,84; 9,61</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>4,21; 8,48</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>4,65; 8,56</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>4,49; 9,21</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>6,07; 11,52</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3,96; 10,0</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>5,78; 12,46</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>62,43; 249,34</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>72,49; 238,34</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>89,85; 238,37</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>56,86; 193,33</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>82,73; 232,22</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>38,7; 127,32</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>46,81; 139,23</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.186781082950476</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>3.26940825341302</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>2.583087953825545</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>5.430039837751066</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-1.898362468119702</v>
+      </c>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.5287390548852317</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>0.334418607152116</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>0.2731362728086881</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>0.657737216935356</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>-0.2638236385491017</v>
+      </c>
+      <c r="O11" s="6" t="inlineStr"/>
+      <c r="P11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.41152395383922</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>13.66638187323636</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>15.04054125728046</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>17.45684419958779</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>13.89006214539797</v>
+      </c>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>7.00242392054097</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>17.86565218319444</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>6.723348006158463</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>16.49702395759156</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>4.970019864912316</v>
+      </c>
+      <c r="O12" s="6" t="inlineStr"/>
+      <c r="P12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>7.31516056685852</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>6.491120992226759</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>6.462063537591739</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>6.732962375830261</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>8.82569336782959</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>6.965609417284954</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>8.999833372964565</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.444572132670602</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>1.442052057456939</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>1.467835871434589</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>1.145528800271125</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>1.541738103733303</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>0.7743266459401861</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>0.8476019700417931</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>4.839647013183805</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>4.020001926582959</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>4.495730441530905</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>4.401192824067598</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>6.144986036215</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>3.961836032766707</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>6.085579460987368</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.6242748197971141</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.700804654422177</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.8494426497071834</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>0.5390577603076371</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0.8668027947126542</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>0.3869816242534058</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>0.4925253554304962</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>9.607841846758031</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>8.514274395164371</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>8.453002997818663</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>9.201873763888321</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>11.47244313480185</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>9.999250536203078</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>12.60696202332785</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>2.493424267688929</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>2.437640395401674</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>2.287182801200568</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>1.887239960569212</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>2.410019283859791</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>1.273162639958113</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>1.40684916364996</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1305,12 +1266,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
